--- a/index.xlsx
+++ b/index.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prp12.000\GitHub-Repos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2525D2-4839-4A19-92C2-24952E2B303E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6652BE57-DED3-400A-91B9-91B31659780A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{5C6AF73A-03E0-4CF8-A538-7EC386C2DBD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5C6AF73A-03E0-4CF8-A538-7EC386C2DBD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Index" sheetId="2" r:id="rId2"/>
+    <sheet name="Query Index" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Index" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Index!$A$1:$A$149</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Index!$A$1:$A$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>parameter</t>
   </si>
@@ -565,18 +566,56 @@
   </si>
   <si>
     <t>https://github.com/prp1277/Excel/tree/master/VBA/scripts/WkBkInfoTable.vb</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Query String</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>let_x000D_
+    Source = Excel.CurrentWorkbook(){[Name="config"]}[Content],_x000D_
+    #"Changed Type" = Table.TransformColumnTypes(Source,{{"parameter", type text}, {"value", type text}})_x000D_
+in_x000D_
+    #"Changed Type"</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>let_x000D_
+    Source = Folder.Files("C:\Users\prp12.000\GitHub-Repos\Excel"),_x000D_
+    #"Removed Columns" = Table.RemoveColumns(Source,{"Content"}),_x000D_
+    #"Filtered Rows" = Table.SelectRows(#"Removed Columns", each ([Extension] &lt;&gt; "" and [Extension] &lt;&gt; ".idx" and [Extension] &lt;&gt; ".pack" and [Extension] &lt;&gt; ".sample")),_x000D_
+    #"Replaced Value" = Table.ReplaceValue(#"Filtered Rows","C:\Users\prp12.000\GitHub-Repos\Excel","https://github.com/prp1277/Excel/tree/master",Replacer.ReplaceText,{"Folder Path"}),_x000D_
+    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value","\","/",Replacer.ReplaceText,{"Folder Path"}),_x000D_
+    #"Merged Columns" = Table.CombineColumns(#"Replaced Value1",{"Folder Path", "Name"},Combiner.CombineTextByDelimiter("", QuoteStyle.None),"Index"),_x000D_
+    #"Removed Other Columns" = Table.SelectColumns(#"Merged Columns",{"Index"})_x000D_
+in_x000D_
+    #"Removed Other Columns"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -599,9 +638,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,6 +999,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C3307-EA6E-47A6-A214-8462A753F0B3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA26AF9B-5FE8-41AE-A356-0B8894CDB982}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -983,7 +1069,7 @@
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">CELL("filename")</f>
-        <v>C:\Users\prp12.000\GitHub-Repos\Excel\[index.xlsx]Index</v>
+        <v>C:\Users\prp12.000\GitHub-Repos\Excel\[index.xlsx]Query Index</v>
       </c>
     </row>
   </sheetData>
@@ -994,11 +1080,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B223D6-4CB2-421D-BE79-4E57E49F7608}">
   <dimension ref="A1:A149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
